--- a/fac_num_assigned.xlsx
+++ b/fac_num_assigned.xlsx
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/fac_num_assigned.xlsx
+++ b/fac_num_assigned.xlsx
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/fac_num_assigned.xlsx
+++ b/fac_num_assigned.xlsx
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/fac_num_assigned.xlsx
+++ b/fac_num_assigned.xlsx
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -533,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -597,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -605,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -621,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -645,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -717,7 +717,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -733,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -773,7 +773,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
